--- a/out/CE/FigA_10.xlsx
+++ b/out/CE/FigA_10.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8320130-B784-48ED-896D-7F344DC4C261}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.75387999999999999</v>
+      </c>
+      <c r="B1">
+        <v>0.77168000000000003</v>
+      </c>
+      <c r="C1">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="D1">
+        <v>0.73504000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.75648000000000004</v>
+      </c>
+      <c r="F1">
+        <v>0.76351000000000002</v>
+      </c>
+      <c r="G1">
+        <v>0.75205</v>
+      </c>
+      <c r="H1">
+        <v>0.72241</v>
+      </c>
+      <c r="I1">
+        <v>0.76243000000000005</v>
+      </c>
+      <c r="J1">
+        <v>0.76253000000000004</v>
+      </c>
+      <c r="K1">
+        <v>0.73673999999999995</v>
+      </c>
+      <c r="L1">
+        <v>0.73992000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.75092000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.75321000000000005</v>
+      </c>
+      <c r="O1">
+        <v>0.74936999999999998</v>
+      </c>
+      <c r="P1">
+        <v>0.76544000000000001</v>
+      </c>
+      <c r="Q1">
+        <v>0.73128000000000004</v>
+      </c>
+      <c r="R1">
+        <v>0.77217999999999998</v>
+      </c>
+      <c r="S1">
+        <v>0.75504000000000004</v>
+      </c>
+      <c r="T1">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="U1">
+        <v>0.73441000000000001</v>
+      </c>
+      <c r="V1">
+        <v>0.77354999999999996</v>
+      </c>
+      <c r="W1">
+        <v>0.75573999999999997</v>
+      </c>
+      <c r="X1">
+        <v>0.74029</v>
+      </c>
+      <c r="Y1">
+        <v>0.73790999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.72667999999999999</v>
+      </c>
+      <c r="AA1">
+        <v>0.72016000000000002</v>
+      </c>
+      <c r="AB1">
+        <v>0.75941999999999998</v>
+      </c>
+      <c r="AC1">
+        <v>0.74702000000000002</v>
+      </c>
+      <c r="AD1">
+        <v>0.72414000000000001</v>
+      </c>
+      <c r="AE1">
+        <v>0.75700999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.746</v>
+      </c>
+      <c r="AG1">
+        <v>0.71206000000000003</v>
+      </c>
+      <c r="AH1">
+        <v>0.74878999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.75944</v>
+      </c>
+      <c r="AJ1">
+        <v>0.72382000000000002</v>
+      </c>
+      <c r="AK1">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="AL1">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AM1">
+        <v>0.78117000000000003</v>
+      </c>
+      <c r="AN1">
+        <v>0.75253000000000003</v>
+      </c>
+      <c r="AO1">
+        <v>0.70648999999999995</v>
+      </c>
+      <c r="AP1">
+        <v>0.77212999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.75209999999999999</v>
+      </c>
+      <c r="AR1">
+        <v>0.73677000000000004</v>
+      </c>
+      <c r="AS1">
+        <v>0.74682999999999999</v>
+      </c>
+      <c r="AT1">
+        <v>0.74975999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.73895</v>
+      </c>
+      <c r="AV1">
+        <v>0.74717</v>
+      </c>
+      <c r="AW1">
+        <v>0.75722</v>
+      </c>
+      <c r="AX1">
+        <v>0.749</v>
+      </c>
+      <c r="AY1">
+        <v>0.72741</v>
+      </c>
+      <c r="AZ1">
+        <v>0.75046999999999997</v>
+      </c>
+      <c r="BA1">
+        <v>0.71989999999999998</v>
+      </c>
+      <c r="BB1">
+        <v>0.73729</v>
+      </c>
+      <c r="BC1">
+        <v>0.73436000000000001</v>
+      </c>
+      <c r="BD1">
+        <v>0.74312999999999996</v>
+      </c>
+      <c r="BE1">
+        <v>0.75566</v>
+      </c>
+      <c r="BF1">
+        <v>0.7349</v>
+      </c>
+      <c r="BG1">
+        <v>0.73548999999999998</v>
+      </c>
+      <c r="BH1">
+        <v>0.76651000000000002</v>
+      </c>
+      <c r="BI1">
+        <v>0.74746999999999997</v>
+      </c>
+      <c r="BJ1">
+        <v>0.71394000000000002</v>
+      </c>
+      <c r="BK1">
+        <v>0.75532999999999995</v>
+      </c>
+      <c r="BL1">
+        <v>0.75271999999999994</v>
+      </c>
+      <c r="BM1">
+        <v>0.73736999999999997</v>
+      </c>
+      <c r="BN1">
+        <v>0.72638999999999998</v>
+      </c>
+      <c r="BO1">
+        <v>0.74985000000000002</v>
+      </c>
+      <c r="BP1">
+        <v>0.73482000000000003</v>
+      </c>
+      <c r="BQ1">
+        <v>0.72614000000000001</v>
+      </c>
+      <c r="BR1">
+        <v>0.73180999999999996</v>
+      </c>
+      <c r="BS1">
+        <v>0.75741999999999998</v>
+      </c>
+      <c r="BT1">
+        <v>0.71282999999999996</v>
+      </c>
+      <c r="BU1">
+        <v>0.71553</v>
+      </c>
+      <c r="BV1">
+        <v>0.72638999999999998</v>
+      </c>
+      <c r="BW1">
+        <v>0.70316000000000001</v>
+      </c>
+      <c r="BX1">
+        <v>0.75421000000000005</v>
+      </c>
+      <c r="BY1">
+        <v>0.75848000000000004</v>
+      </c>
+      <c r="BZ1">
+        <v>0.77210999999999996</v>
+      </c>
+      <c r="CA1">
+        <v>0.74694000000000005</v>
+      </c>
+      <c r="CB1">
+        <v>0.73948999999999998</v>
+      </c>
+      <c r="CC1">
+        <v>0.73699000000000003</v>
+      </c>
+      <c r="CD1">
+        <v>0.73706000000000005</v>
+      </c>
+      <c r="CE1">
+        <v>0.71675999999999995</v>
+      </c>
+      <c r="CF1">
+        <v>0.71048999999999995</v>
+      </c>
+      <c r="CG1">
+        <v>0.74690000000000001</v>
+      </c>
+      <c r="CH1">
+        <v>0.79103000000000001</v>
+      </c>
+      <c r="CI1">
+        <v>0.71572999999999998</v>
+      </c>
+      <c r="CJ1">
+        <v>0.76321000000000006</v>
+      </c>
+      <c r="CK1">
+        <v>0.76275999999999999</v>
+      </c>
+      <c r="CL1">
+        <v>0.73392000000000002</v>
+      </c>
+      <c r="CM1">
+        <v>0.75358999999999998</v>
+      </c>
+      <c r="CN1">
+        <v>0.72443999999999997</v>
+      </c>
+      <c r="CO1">
+        <v>0.76620999999999995</v>
+      </c>
+      <c r="CP1">
+        <v>0.71936999999999995</v>
+      </c>
+      <c r="CQ1">
+        <v>0.75095999999999996</v>
+      </c>
+      <c r="CR1">
+        <v>0.76151999999999997</v>
+      </c>
+      <c r="CS1">
+        <v>0.71099000000000001</v>
+      </c>
+      <c r="CT1">
+        <v>0.73012999999999995</v>
+      </c>
+      <c r="CU1">
+        <v>0.71416999999999997</v>
+      </c>
+      <c r="CV1">
+        <v>0.75361999999999996</v>
+      </c>
+      <c r="CW1">
+        <v>0.74330640000000003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.75822000000000001</v>
+      </c>
+      <c r="B2">
+        <v>0.76271999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.75527</v>
+      </c>
+      <c r="D2">
+        <v>0.72072999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.74733000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.74670999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.7571</v>
+      </c>
+      <c r="I2">
+        <v>0.71326999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.74034</v>
+      </c>
+      <c r="K2">
+        <v>0.76378999999999997</v>
+      </c>
+      <c r="L2">
+        <v>0.75334999999999996</v>
+      </c>
+      <c r="M2">
+        <v>0.76314000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.74565000000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.73384000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.73680999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.79147000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.75378000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.77468000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.76337999999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.73092999999999997</v>
+      </c>
+      <c r="X2">
+        <v>0.72702999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.77541000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.76222999999999996</v>
+      </c>
+      <c r="AA2">
+        <v>0.77063999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>0.74751999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.74666999999999994</v>
+      </c>
+      <c r="AD2">
+        <v>0.77103999999999995</v>
+      </c>
+      <c r="AE2">
+        <v>0.73848999999999998</v>
+      </c>
+      <c r="AF2">
+        <v>0.72874000000000005</v>
+      </c>
+      <c r="AG2">
+        <v>0.75253999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.74587000000000003</v>
+      </c>
+      <c r="AI2">
+        <v>0.69987999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.74270999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.71806000000000003</v>
+      </c>
+      <c r="AL2">
+        <v>0.75931999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.75953999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.75510999999999995</v>
+      </c>
+      <c r="AO2">
+        <v>0.76390999999999998</v>
+      </c>
+      <c r="AP2">
+        <v>0.72250999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.76795999999999998</v>
+      </c>
+      <c r="AR2">
+        <v>0.72160000000000002</v>
+      </c>
+      <c r="AS2">
+        <v>0.74594000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.76554</v>
+      </c>
+      <c r="AU2">
+        <v>0.76487000000000005</v>
+      </c>
+      <c r="AV2">
+        <v>0.76083999999999996</v>
+      </c>
+      <c r="AW2">
+        <v>0.74275000000000002</v>
+      </c>
+      <c r="AX2">
+        <v>0.71013000000000004</v>
+      </c>
+      <c r="AY2">
+        <v>0.73885000000000001</v>
+      </c>
+      <c r="AZ2">
+        <v>0.75070999999999999</v>
+      </c>
+      <c r="BA2">
+        <v>0.73104999999999998</v>
+      </c>
+      <c r="BB2">
+        <v>0.76898</v>
+      </c>
+      <c r="BC2">
+        <v>0.75346999999999997</v>
+      </c>
+      <c r="BD2">
+        <v>0.74626000000000003</v>
+      </c>
+      <c r="BE2">
+        <v>0.72619</v>
+      </c>
+      <c r="BF2">
+        <v>0.76724000000000003</v>
+      </c>
+      <c r="BG2">
+        <v>0.75458000000000003</v>
+      </c>
+      <c r="BH2">
+        <v>0.75575999999999999</v>
+      </c>
+      <c r="BI2">
+        <v>0.76558000000000004</v>
+      </c>
+      <c r="BJ2">
+        <v>0.74985000000000002</v>
+      </c>
+      <c r="BK2">
+        <v>0.75922000000000001</v>
+      </c>
+      <c r="BL2">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="BM2">
+        <v>0.76097000000000004</v>
+      </c>
+      <c r="BN2">
+        <v>0.72826000000000002</v>
+      </c>
+      <c r="BO2">
+        <v>0.73026000000000002</v>
+      </c>
+      <c r="BP2">
+        <v>0.75007999999999997</v>
+      </c>
+      <c r="BQ2">
+        <v>0.74768000000000001</v>
+      </c>
+      <c r="BR2">
+        <v>0.78525999999999996</v>
+      </c>
+      <c r="BS2">
+        <v>0.75815999999999995</v>
+      </c>
+      <c r="BT2">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="BU2">
+        <v>0.76966000000000001</v>
+      </c>
+      <c r="BV2">
+        <v>0.75280999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.74665000000000004</v>
+      </c>
+      <c r="BX2">
+        <v>0.74073</v>
+      </c>
+      <c r="BY2">
+        <v>0.77085999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.75783</v>
+      </c>
+      <c r="CA2">
+        <v>0.74936999999999998</v>
+      </c>
+      <c r="CB2">
+        <v>0.74033000000000004</v>
+      </c>
+      <c r="CC2">
+        <v>0.77612999999999999</v>
+      </c>
+      <c r="CD2">
+        <v>0.74804999999999999</v>
+      </c>
+      <c r="CE2">
+        <v>0.76298999999999995</v>
+      </c>
+      <c r="CF2">
+        <v>0.74643999999999999</v>
+      </c>
+      <c r="CG2">
+        <v>0.77471999999999996</v>
+      </c>
+      <c r="CH2">
+        <v>0.75417999999999996</v>
+      </c>
+      <c r="CI2">
+        <v>0.76917000000000002</v>
+      </c>
+      <c r="CJ2">
+        <v>0.75663999999999998</v>
+      </c>
+      <c r="CK2">
+        <v>0.75273999999999996</v>
+      </c>
+      <c r="CL2">
+        <v>0.76017000000000001</v>
+      </c>
+      <c r="CM2">
+        <v>0.75992000000000004</v>
+      </c>
+      <c r="CN2">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="CO2">
+        <v>0.74853999999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.75854999999999995</v>
+      </c>
+      <c r="CQ2">
+        <v>0.76693999999999996</v>
+      </c>
+      <c r="CR2">
+        <v>0.73921000000000003</v>
+      </c>
+      <c r="CS2">
+        <v>0.72975999999999996</v>
+      </c>
+      <c r="CT2">
+        <v>0.74575999999999998</v>
+      </c>
+      <c r="CU2">
+        <v>0.73956999999999995</v>
+      </c>
+      <c r="CV2">
+        <v>0.78046000000000004</v>
+      </c>
+      <c r="CW2">
+        <v>0.75128350000000022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.78319000000000005</v>
+      </c>
+      <c r="B3">
+        <v>0.75863000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.73406000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.73307999999999995</v>
+      </c>
+      <c r="E3">
+        <v>0.73068999999999995</v>
+      </c>
+      <c r="F3">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.73480000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.73041</v>
+      </c>
+      <c r="I3">
+        <v>0.72448999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.77092000000000005</v>
+      </c>
+      <c r="K3">
+        <v>0.76651000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.74233000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.75600999999999996</v>
+      </c>
+      <c r="N3">
+        <v>0.73263999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.76887000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.71684000000000003</v>
+      </c>
+      <c r="Q3">
+        <v>0.76715</v>
+      </c>
+      <c r="R3">
+        <v>0.73406000000000005</v>
+      </c>
+      <c r="S3">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.75056999999999996</v>
+      </c>
+      <c r="U3">
+        <v>0.70977999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.73038999999999998</v>
+      </c>
+      <c r="W3">
+        <v>0.77078000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.76488</v>
+      </c>
+      <c r="Y3">
+        <v>0.75873999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.75836000000000003</v>
+      </c>
+      <c r="AA3">
+        <v>0.76339000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.73517999999999994</v>
+      </c>
+      <c r="AC3">
+        <v>0.77971999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.76954999999999996</v>
+      </c>
+      <c r="AE3">
+        <v>0.78654000000000002</v>
+      </c>
+      <c r="AF3">
+        <v>0.70684999999999998</v>
+      </c>
+      <c r="AG3">
+        <v>0.76688000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.74082999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.74739</v>
+      </c>
+      <c r="AJ3">
+        <v>0.71418000000000004</v>
+      </c>
+      <c r="AK3">
+        <v>0.74383999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.72626000000000002</v>
+      </c>
+      <c r="AM3">
+        <v>0.755</v>
+      </c>
+      <c r="AN3">
+        <v>0.77285999999999999</v>
+      </c>
+      <c r="AO3">
+        <v>0.72860999999999998</v>
+      </c>
+      <c r="AP3">
+        <v>0.78739000000000003</v>
+      </c>
+      <c r="AQ3">
+        <v>0.75155000000000005</v>
+      </c>
+      <c r="AR3">
+        <v>0.74078999999999995</v>
+      </c>
+      <c r="AS3">
+        <v>0.71452000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.74834000000000001</v>
+      </c>
+      <c r="AU3">
+        <v>0.77578000000000003</v>
+      </c>
+      <c r="AV3">
+        <v>0.75460000000000005</v>
+      </c>
+      <c r="AW3">
+        <v>0.71194999999999997</v>
+      </c>
+      <c r="AX3">
+        <v>0.74526000000000003</v>
+      </c>
+      <c r="AY3">
+        <v>0.77666000000000002</v>
+      </c>
+      <c r="AZ3">
+        <v>0.77398999999999996</v>
+      </c>
+      <c r="BA3">
+        <v>0.73665000000000003</v>
+      </c>
+      <c r="BB3">
+        <v>0.73177999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.73819000000000001</v>
+      </c>
+      <c r="BD3">
+        <v>0.73958000000000002</v>
+      </c>
+      <c r="BE3">
+        <v>0.74070999999999998</v>
+      </c>
+      <c r="BF3">
+        <v>0.73153999999999997</v>
+      </c>
+      <c r="BG3">
+        <v>0.74851999999999996</v>
+      </c>
+      <c r="BH3">
+        <v>0.76093</v>
+      </c>
+      <c r="BI3">
+        <v>0.73031000000000001</v>
+      </c>
+      <c r="BJ3">
+        <v>0.73082000000000003</v>
+      </c>
+      <c r="BK3">
+        <v>0.75051999999999996</v>
+      </c>
+      <c r="BL3">
+        <v>0.72545000000000004</v>
+      </c>
+      <c r="BM3">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="BN3">
+        <v>0.73987999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>0.76512999999999998</v>
+      </c>
+      <c r="BP3">
+        <v>0.76873999999999998</v>
+      </c>
+      <c r="BQ3">
+        <v>0.73168</v>
+      </c>
+      <c r="BR3">
+        <v>0.78532999999999997</v>
+      </c>
+      <c r="BS3">
+        <v>0.73651999999999995</v>
+      </c>
+      <c r="BT3">
+        <v>0.76637999999999995</v>
+      </c>
+      <c r="BU3">
+        <v>0.71587000000000001</v>
+      </c>
+      <c r="BV3">
+        <v>0.74489000000000005</v>
+      </c>
+      <c r="BW3">
+        <v>0.75812000000000002</v>
+      </c>
+      <c r="BX3">
+        <v>0.75092999999999999</v>
+      </c>
+      <c r="BY3">
+        <v>0.72021000000000002</v>
+      </c>
+      <c r="BZ3">
+        <v>0.76781999999999995</v>
+      </c>
+      <c r="CA3">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="CC3">
+        <v>0.75156999999999996</v>
+      </c>
+      <c r="CD3">
+        <v>0.74346000000000001</v>
+      </c>
+      <c r="CE3">
+        <v>0.73331999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.77476999999999996</v>
+      </c>
+      <c r="CG3">
+        <v>0.74558000000000002</v>
+      </c>
+      <c r="CH3">
+        <v>0.74073999999999995</v>
+      </c>
+      <c r="CI3">
+        <v>0.74702000000000002</v>
+      </c>
+      <c r="CJ3">
+        <v>0.74653000000000003</v>
+      </c>
+      <c r="CK3">
+        <v>0.74504000000000004</v>
+      </c>
+      <c r="CL3">
+        <v>0.72355999999999998</v>
+      </c>
+      <c r="CM3">
+        <v>0.74634</v>
+      </c>
+      <c r="CN3">
+        <v>0.75985000000000003</v>
+      </c>
+      <c r="CO3">
+        <v>0.75261999999999996</v>
+      </c>
+      <c r="CP3">
+        <v>0.77005999999999997</v>
+      </c>
+      <c r="CQ3">
+        <v>0.72370999999999996</v>
+      </c>
+      <c r="CR3">
+        <v>0.78469</v>
+      </c>
+      <c r="CS3">
+        <v>0.76198999999999995</v>
+      </c>
+      <c r="CT3">
+        <v>0.74897000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.73719000000000001</v>
+      </c>
+      <c r="CV3">
+        <v>0.76910999999999996</v>
+      </c>
+      <c r="CW3">
+        <v>0.74807009999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.77024000000000004</v>
+      </c>
+      <c r="B4">
+        <v>0.78573000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.72801000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.73004000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.75978000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.73055000000000003</v>
+      </c>
+      <c r="H4">
+        <v>0.70403000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.73599000000000003</v>
+      </c>
+      <c r="J4">
+        <v>0.75854999999999995</v>
+      </c>
+      <c r="K4">
+        <v>0.76366000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.76673999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.75700999999999996</v>
+      </c>
+      <c r="N4">
+        <v>0.74665999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.76527999999999996</v>
+      </c>
+      <c r="P4">
+        <v>0.72191000000000005</v>
+      </c>
+      <c r="Q4">
+        <v>0.76710999999999996</v>
+      </c>
+      <c r="R4">
+        <v>0.74961999999999995</v>
+      </c>
+      <c r="S4">
+        <v>0.76232</v>
+      </c>
+      <c r="T4">
+        <v>0.75685000000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.73063999999999996</v>
+      </c>
+      <c r="V4">
+        <v>0.71872999999999998</v>
+      </c>
+      <c r="W4">
+        <v>0.75024000000000002</v>
+      </c>
+      <c r="X4">
+        <v>0.75756000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.74004000000000003</v>
+      </c>
+      <c r="Z4">
+        <v>0.76234999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>0.77941000000000005</v>
+      </c>
+      <c r="AB4">
+        <v>0.74697999999999998</v>
+      </c>
+      <c r="AC4">
+        <v>0.74614000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="AE4">
+        <v>0.74017999999999995</v>
+      </c>
+      <c r="AF4">
+        <v>0.73834999999999995</v>
+      </c>
+      <c r="AG4">
+        <v>0.79074999999999995</v>
+      </c>
+      <c r="AH4">
+        <v>0.77725999999999995</v>
+      </c>
+      <c r="AI4">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.73748999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>0.76885999999999999</v>
+      </c>
+      <c r="AL4">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="AM4">
+        <v>0.76444999999999996</v>
+      </c>
+      <c r="AN4">
+        <v>0.74434999999999996</v>
+      </c>
+      <c r="AO4">
+        <v>0.70735999999999999</v>
+      </c>
+      <c r="AP4">
+        <v>0.73841000000000001</v>
+      </c>
+      <c r="AQ4">
+        <v>0.73816999999999999</v>
+      </c>
+      <c r="AR4">
+        <v>0.77061000000000002</v>
+      </c>
+      <c r="AS4">
+        <v>0.72767999999999999</v>
+      </c>
+      <c r="AT4">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="AU4">
+        <v>0.73509000000000002</v>
+      </c>
+      <c r="AV4">
+        <v>0.74163999999999997</v>
+      </c>
+      <c r="AW4">
+        <v>0.71687999999999996</v>
+      </c>
+      <c r="AX4">
+        <v>0.74187000000000003</v>
+      </c>
+      <c r="AY4">
+        <v>0.74597999999999998</v>
+      </c>
+      <c r="AZ4">
+        <v>0.77215999999999996</v>
+      </c>
+      <c r="BA4">
+        <v>0.74575000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>0.75653000000000004</v>
+      </c>
+      <c r="BC4">
+        <v>0.78351000000000004</v>
+      </c>
+      <c r="BD4">
+        <v>0.72680999999999996</v>
+      </c>
+      <c r="BE4">
+        <v>0.75190000000000001</v>
+      </c>
+      <c r="BF4">
+        <v>0.73595999999999995</v>
+      </c>
+      <c r="BG4">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="BH4">
+        <v>0.75592000000000004</v>
+      </c>
+      <c r="BI4">
+        <v>0.76407999999999998</v>
+      </c>
+      <c r="BJ4">
+        <v>0.7379</v>
+      </c>
+      <c r="BK4">
+        <v>0.77558000000000005</v>
+      </c>
+      <c r="BL4">
+        <v>0.74058000000000002</v>
+      </c>
+      <c r="BM4">
+        <v>0.74177999999999999</v>
+      </c>
+      <c r="BN4">
+        <v>0.71396000000000004</v>
+      </c>
+      <c r="BO4">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="BP4">
+        <v>0.77422999999999997</v>
+      </c>
+      <c r="BQ4">
+        <v>0.74955000000000005</v>
+      </c>
+      <c r="BR4">
+        <v>0.74082000000000003</v>
+      </c>
+      <c r="BS4">
+        <v>0.73941000000000001</v>
+      </c>
+      <c r="BT4">
+        <v>0.74922</v>
+      </c>
+      <c r="BU4">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="BV4">
+        <v>0.75512999999999997</v>
+      </c>
+      <c r="BW4">
+        <v>0.72607999999999995</v>
+      </c>
+      <c r="BX4">
+        <v>0.74077000000000004</v>
+      </c>
+      <c r="BY4">
+        <v>0.74282000000000004</v>
+      </c>
+      <c r="BZ4">
+        <v>0.78298999999999996</v>
+      </c>
+      <c r="CA4">
+        <v>0.75241999999999998</v>
+      </c>
+      <c r="CB4">
+        <v>0.72931999999999997</v>
+      </c>
+      <c r="CC4">
+        <v>0.74490000000000001</v>
+      </c>
+      <c r="CD4">
+        <v>0.72987999999999997</v>
+      </c>
+      <c r="CE4">
+        <v>0.77798</v>
+      </c>
+      <c r="CF4">
+        <v>0.75207999999999997</v>
+      </c>
+      <c r="CG4">
+        <v>0.74377000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.7651</v>
+      </c>
+      <c r="CI4">
+        <v>0.75178</v>
+      </c>
+      <c r="CJ4">
+        <v>0.74572000000000005</v>
+      </c>
+      <c r="CK4">
+        <v>0.75658999999999998</v>
+      </c>
+      <c r="CL4">
+        <v>0.77024999999999999</v>
+      </c>
+      <c r="CM4">
+        <v>0.77934999999999999</v>
+      </c>
+      <c r="CN4">
+        <v>0.77087000000000006</v>
+      </c>
+      <c r="CO4">
+        <v>0.76422000000000001</v>
+      </c>
+      <c r="CP4">
+        <v>0.74133000000000004</v>
+      </c>
+      <c r="CQ4">
+        <v>0.75290999999999997</v>
+      </c>
+      <c r="CR4">
+        <v>0.77431000000000005</v>
+      </c>
+      <c r="CS4">
+        <v>0.74834999999999996</v>
+      </c>
+      <c r="CT4">
+        <v>0.73226000000000002</v>
+      </c>
+      <c r="CU4">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="CV4">
+        <v>0.74580999999999997</v>
+      </c>
+      <c r="CW4">
+        <v>0.75033790000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.75814000000000004</v>
+      </c>
+      <c r="B5">
+        <v>0.75966</v>
+      </c>
+      <c r="C5">
+        <v>0.77115999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.74373999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.72633000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.74604999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.75258000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.75495999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.79508999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.72250999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.77761000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.74085999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.72997000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.76505999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.72485999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.73016999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.76163000000000003</v>
+      </c>
+      <c r="R5">
+        <v>0.76017999999999997</v>
+      </c>
+      <c r="S5">
+        <v>0.75309999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.77620999999999996</v>
+      </c>
+      <c r="U5">
+        <v>0.73904999999999998</v>
+      </c>
+      <c r="V5">
+        <v>0.73207999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.76832999999999996</v>
+      </c>
+      <c r="X5">
+        <v>0.76271</v>
+      </c>
+      <c r="Y5">
+        <v>0.73855000000000004</v>
+      </c>
+      <c r="Z5">
+        <v>0.76642999999999994</v>
+      </c>
+      <c r="AA5">
+        <v>0.75285999999999997</v>
+      </c>
+      <c r="AB5">
+        <v>0.74714000000000003</v>
+      </c>
+      <c r="AC5">
+        <v>0.76651999999999998</v>
+      </c>
+      <c r="AD5">
+        <v>0.76687000000000005</v>
+      </c>
+      <c r="AE5">
+        <v>0.75563000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.76100999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.75143000000000004</v>
+      </c>
+      <c r="AH5">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="AI5">
+        <v>0.75993999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.75348999999999999</v>
+      </c>
+      <c r="AK5">
+        <v>0.75061</v>
+      </c>
+      <c r="AL5">
+        <v>0.76732</v>
+      </c>
+      <c r="AM5">
+        <v>0.76063999999999998</v>
+      </c>
+      <c r="AN5">
+        <v>0.75456999999999996</v>
+      </c>
+      <c r="AO5">
+        <v>0.76329999999999998</v>
+      </c>
+      <c r="AP5">
+        <v>0.76039000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.76905999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.77754999999999996</v>
+      </c>
+      <c r="AS5">
+        <v>0.75985000000000003</v>
+      </c>
+      <c r="AT5">
+        <v>0.72114</v>
+      </c>
+      <c r="AU5">
+        <v>0.77422000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>0.75536999999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.75773999999999997</v>
+      </c>
+      <c r="AX5">
+        <v>0.73863000000000001</v>
+      </c>
+      <c r="AY5">
+        <v>0.78283000000000003</v>
+      </c>
+      <c r="AZ5">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="BA5">
+        <v>0.75509000000000004</v>
+      </c>
+      <c r="BB5">
+        <v>0.76076999999999995</v>
+      </c>
+      <c r="BC5">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="BD5">
+        <v>0.73968999999999996</v>
+      </c>
+      <c r="BE5">
+        <v>0.72658</v>
+      </c>
+      <c r="BF5">
+        <v>0.77054999999999996</v>
+      </c>
+      <c r="BG5">
+        <v>0.75414000000000003</v>
+      </c>
+      <c r="BH5">
+        <v>0.76831000000000005</v>
+      </c>
+      <c r="BI5">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="BJ5">
+        <v>0.74456</v>
+      </c>
+      <c r="BK5">
+        <v>0.74102000000000001</v>
+      </c>
+      <c r="BL5">
+        <v>0.73589000000000004</v>
+      </c>
+      <c r="BM5">
+        <v>0.71916999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>0.72101999999999999</v>
+      </c>
+      <c r="BO5">
+        <v>0.74763999999999997</v>
+      </c>
+      <c r="BP5">
+        <v>0.76678999999999997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.74878</v>
+      </c>
+      <c r="BR5">
+        <v>0.71409</v>
+      </c>
+      <c r="BS5">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="BT5">
+        <v>0.75131000000000003</v>
+      </c>
+      <c r="BU5">
+        <v>0.74380999999999997</v>
+      </c>
+      <c r="BV5">
+        <v>0.73238000000000003</v>
+      </c>
+      <c r="BW5">
+        <v>0.74626000000000003</v>
+      </c>
+      <c r="BX5">
+        <v>0.75185000000000002</v>
+      </c>
+      <c r="BY5">
+        <v>0.73346999999999996</v>
+      </c>
+      <c r="BZ5">
+        <v>0.73846999999999996</v>
+      </c>
+      <c r="CA5">
+        <v>0.70562000000000002</v>
+      </c>
+      <c r="CB5">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.73395999999999995</v>
+      </c>
+      <c r="CD5">
+        <v>0.72616999999999998</v>
+      </c>
+      <c r="CE5">
+        <v>0.75136000000000003</v>
+      </c>
+      <c r="CF5">
+        <v>0.77575000000000005</v>
+      </c>
+      <c r="CG5">
+        <v>0.72877000000000003</v>
+      </c>
+      <c r="CH5">
+        <v>0.75488</v>
+      </c>
+      <c r="CI5">
+        <v>0.71455999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.73360999999999998</v>
+      </c>
+      <c r="CK5">
+        <v>0.73455000000000004</v>
+      </c>
+      <c r="CL5">
+        <v>0.73760999999999999</v>
+      </c>
+      <c r="CM5">
+        <v>0.74853999999999998</v>
+      </c>
+      <c r="CN5">
+        <v>0.73538000000000003</v>
+      </c>
+      <c r="CO5">
+        <v>0.75461</v>
+      </c>
+      <c r="CP5">
+        <v>0.74617999999999995</v>
+      </c>
+      <c r="CQ5">
+        <v>0.74153000000000002</v>
+      </c>
+      <c r="CR5">
+        <v>0.77373999999999998</v>
+      </c>
+      <c r="CS5">
+        <v>0.72953999999999997</v>
+      </c>
+      <c r="CT5">
+        <v>0.76344000000000001</v>
+      </c>
+      <c r="CU5">
+        <v>0.76329000000000002</v>
+      </c>
+      <c r="CV5">
+        <v>0.71660000000000001</v>
+      </c>
+      <c r="CW5">
+        <v>0.74884560000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.75266999999999995</v>
+      </c>
+      <c r="C6">
+        <v>0.77307999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.73790999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.77998999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.76651999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.73223000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.76092000000000004</v>
+      </c>
+      <c r="I6">
+        <v>0.74100999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.74002000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.76922000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.75317000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.72885</v>
+      </c>
+      <c r="N6">
+        <v>0.77578000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.78769</v>
+      </c>
+      <c r="P6">
+        <v>0.76331000000000004</v>
+      </c>
+      <c r="Q6">
+        <v>0.76373000000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.75690999999999997</v>
+      </c>
+      <c r="S6">
+        <v>0.76975000000000005</v>
+      </c>
+      <c r="T6">
+        <v>0.74741999999999997</v>
+      </c>
+      <c r="U6">
+        <v>0.78105000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0.75612999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.76454999999999995</v>
+      </c>
+      <c r="X6">
+        <v>0.77607999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>0.74575000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.75731999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>0.73560999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.73294999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.72902999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>0.73268999999999995</v>
+      </c>
+      <c r="AE6">
+        <v>0.7762</v>
+      </c>
+      <c r="AF6">
+        <v>0.73863000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="AH6">
+        <v>0.73172999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.77044000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.71553</v>
+      </c>
+      <c r="AK6">
+        <v>0.75361</v>
+      </c>
+      <c r="AL6">
+        <v>0.73651</v>
+      </c>
+      <c r="AM6">
+        <v>0.74324999999999997</v>
+      </c>
+      <c r="AN6">
+        <v>0.73768999999999996</v>
+      </c>
+      <c r="AO6">
+        <v>0.74929999999999997</v>
+      </c>
+      <c r="AP6">
+        <v>0.74980000000000002</v>
+      </c>
+      <c r="AQ6">
+        <v>0.74334</v>
+      </c>
+      <c r="AR6">
+        <v>0.77498</v>
+      </c>
+      <c r="AS6">
+        <v>0.71933999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.75917999999999997</v>
+      </c>
+      <c r="AU6">
+        <v>0.74456</v>
+      </c>
+      <c r="AV6">
+        <v>0.75809000000000004</v>
+      </c>
+      <c r="AW6">
+        <v>0.73529</v>
+      </c>
+      <c r="AX6">
+        <v>0.76256000000000002</v>
+      </c>
+      <c r="AY6">
+        <v>0.74329000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>0.74934000000000001</v>
+      </c>
+      <c r="BA6">
+        <v>0.76249</v>
+      </c>
+      <c r="BB6">
+        <v>0.74383999999999995</v>
+      </c>
+      <c r="BC6">
+        <v>0.76673000000000002</v>
+      </c>
+      <c r="BD6">
+        <v>0.75417999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.73777000000000004</v>
+      </c>
+      <c r="BF6">
+        <v>0.76454999999999995</v>
+      </c>
+      <c r="BG6">
+        <v>0.75219000000000003</v>
+      </c>
+      <c r="BH6">
+        <v>0.75087000000000004</v>
+      </c>
+      <c r="BI6">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="BJ6">
+        <v>0.75646000000000002</v>
+      </c>
+      <c r="BK6">
+        <v>0.73302</v>
+      </c>
+      <c r="BL6">
+        <v>0.7621</v>
+      </c>
+      <c r="BM6">
+        <v>0.76851000000000003</v>
+      </c>
+      <c r="BN6">
+        <v>0.75021000000000004</v>
+      </c>
+      <c r="BO6">
+        <v>0.73880999999999997</v>
+      </c>
+      <c r="BP6">
+        <v>0.74594000000000005</v>
+      </c>
+      <c r="BQ6">
+        <v>0.73626999999999998</v>
+      </c>
+      <c r="BR6">
+        <v>0.75432999999999995</v>
+      </c>
+      <c r="BS6">
+        <v>0.75907999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.76339000000000001</v>
+      </c>
+      <c r="BU6">
+        <v>0.73728000000000005</v>
+      </c>
+      <c r="BV6">
+        <v>0.74553000000000003</v>
+      </c>
+      <c r="BW6">
+        <v>0.74746999999999997</v>
+      </c>
+      <c r="BX6">
+        <v>0.73516999999999999</v>
+      </c>
+      <c r="BY6">
+        <v>0.72962000000000005</v>
+      </c>
+      <c r="BZ6">
+        <v>0.73943000000000003</v>
+      </c>
+      <c r="CA6">
+        <v>0.74797000000000002</v>
+      </c>
+      <c r="CB6">
+        <v>0.75663999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.75678999999999996</v>
+      </c>
+      <c r="CD6">
+        <v>0.72902999999999996</v>
+      </c>
+      <c r="CE6">
+        <v>0.76292000000000004</v>
+      </c>
+      <c r="CF6">
+        <v>0.73185</v>
+      </c>
+      <c r="CG6">
+        <v>0.74634</v>
+      </c>
+      <c r="CH6">
+        <v>0.75236000000000003</v>
+      </c>
+      <c r="CI6">
+        <v>0.7742</v>
+      </c>
+      <c r="CJ6">
+        <v>0.75936000000000003</v>
+      </c>
+      <c r="CK6">
+        <v>0.76678000000000002</v>
+      </c>
+      <c r="CL6">
+        <v>0.74834000000000001</v>
+      </c>
+      <c r="CM6">
+        <v>0.77386999999999995</v>
+      </c>
+      <c r="CN6">
+        <v>0.73753000000000002</v>
+      </c>
+      <c r="CO6">
+        <v>0.73931999999999998</v>
+      </c>
+      <c r="CP6">
+        <v>0.73792999999999997</v>
+      </c>
+      <c r="CQ6">
+        <v>0.77402000000000004</v>
+      </c>
+      <c r="CR6">
+        <v>0.76022999999999996</v>
+      </c>
+      <c r="CS6">
+        <v>0.72687999999999997</v>
+      </c>
+      <c r="CT6">
+        <v>0.78417000000000003</v>
+      </c>
+      <c r="CU6">
+        <v>0.76458000000000004</v>
+      </c>
+      <c r="CV6">
+        <v>0.74900999999999995</v>
+      </c>
+      <c r="CW6">
+        <v>0.75204459999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.75033000000000005</v>
+      </c>
+      <c r="B7">
+        <v>0.74060999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.72958000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.74028000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.75161</v>
+      </c>
+      <c r="F7">
+        <v>0.74406000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.79164000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.73446999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.74888999999999994</v>
+      </c>
+      <c r="J7">
+        <v>0.75583999999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.73402000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.76166</v>
+      </c>
+      <c r="M7">
+        <v>0.74805999999999995</v>
+      </c>
+      <c r="N7">
+        <v>0.73573999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.78115999999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.73965000000000003</v>
+      </c>
+      <c r="Q7">
+        <v>0.72087000000000001</v>
+      </c>
+      <c r="R7">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="S7">
+        <v>0.72709000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.74065999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.72496000000000005</v>
+      </c>
+      <c r="V7">
+        <v>0.75046999999999997</v>
+      </c>
+      <c r="W7">
+        <v>0.75214999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.75129999999999997</v>
+      </c>
+      <c r="Y7">
+        <v>0.73611000000000004</v>
+      </c>
+      <c r="Z7">
+        <v>0.76407000000000003</v>
+      </c>
+      <c r="AA7">
+        <v>0.74755000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.75841999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.75327</v>
+      </c>
+      <c r="AD7">
+        <v>0.74726000000000004</v>
+      </c>
+      <c r="AE7">
+        <v>0.74948999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.7339</v>
+      </c>
+      <c r="AG7">
+        <v>0.71011000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="AI7">
+        <v>0.73865000000000003</v>
+      </c>
+      <c r="AJ7">
+        <v>0.76083000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>0.76427999999999996</v>
+      </c>
+      <c r="AL7">
+        <v>0.75182000000000004</v>
+      </c>
+      <c r="AM7">
+        <v>0.77134999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.75383999999999995</v>
+      </c>
+      <c r="AO7">
+        <v>0.75424000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>0.74067000000000005</v>
+      </c>
+      <c r="AQ7">
+        <v>0.75022999999999995</v>
+      </c>
+      <c r="AR7">
+        <v>0.73051999999999995</v>
+      </c>
+      <c r="AS7">
+        <v>0.75383</v>
+      </c>
+      <c r="AT7">
+        <v>0.76822000000000001</v>
+      </c>
+      <c r="AU7">
+        <v>0.75224000000000002</v>
+      </c>
+      <c r="AV7">
+        <v>0.73884000000000005</v>
+      </c>
+      <c r="AW7">
+        <v>0.73362000000000005</v>
+      </c>
+      <c r="AX7">
+        <v>0.77356000000000003</v>
+      </c>
+      <c r="AY7">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="AZ7">
+        <v>0.76588000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.77305000000000001</v>
+      </c>
+      <c r="BB7">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="BC7">
+        <v>0.76122999999999996</v>
+      </c>
+      <c r="BD7">
+        <v>0.74458000000000002</v>
+      </c>
+      <c r="BE7">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="BF7">
+        <v>0.74051999999999996</v>
+      </c>
+      <c r="BG7">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="BH7">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="BI7">
+        <v>0.74636000000000002</v>
+      </c>
+      <c r="BJ7">
+        <v>0.72272000000000003</v>
+      </c>
+      <c r="BK7">
+        <v>0.72275</v>
+      </c>
+      <c r="BL7">
+        <v>0.72694999999999999</v>
+      </c>
+      <c r="BM7">
+        <v>0.73656999999999995</v>
+      </c>
+      <c r="BN7">
+        <v>0.76271999999999995</v>
+      </c>
+      <c r="BO7">
+        <v>0.74373999999999996</v>
+      </c>
+      <c r="BP7">
+        <v>0.72958000000000001</v>
+      </c>
+      <c r="BQ7">
+        <v>0.75044999999999995</v>
+      </c>
+      <c r="BR7">
+        <v>0.74543000000000004</v>
+      </c>
+      <c r="BS7">
+        <v>0.74731000000000003</v>
+      </c>
+      <c r="BT7">
+        <v>0.72865999999999997</v>
+      </c>
+      <c r="BU7">
+        <v>0.70765999999999996</v>
+      </c>
+      <c r="BV7">
+        <v>0.75416000000000005</v>
+      </c>
+      <c r="BW7">
+        <v>0.76637</v>
+      </c>
+      <c r="BX7">
+        <v>0.72863</v>
+      </c>
+      <c r="BY7">
+        <v>0.73533999999999999</v>
+      </c>
+      <c r="BZ7">
+        <v>0.74487000000000003</v>
+      </c>
+      <c r="CA7">
+        <v>0.74878</v>
+      </c>
+      <c r="CB7">
+        <v>0.73397000000000001</v>
+      </c>
+      <c r="CC7">
+        <v>0.73194999999999999</v>
+      </c>
+      <c r="CD7">
+        <v>0.76573000000000002</v>
+      </c>
+      <c r="CE7">
+        <v>0.78049000000000002</v>
+      </c>
+      <c r="CF7">
+        <v>0.72392000000000001</v>
+      </c>
+      <c r="CG7">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="CH7">
+        <v>0.75802999999999998</v>
+      </c>
+      <c r="CI7">
+        <v>0.75746000000000002</v>
+      </c>
+      <c r="CJ7">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="CK7">
+        <v>0.74607000000000001</v>
+      </c>
+      <c r="CL7">
+        <v>0.78256000000000003</v>
+      </c>
+      <c r="CM7">
+        <v>0.75368000000000002</v>
+      </c>
+      <c r="CN7">
+        <v>0.73931000000000002</v>
+      </c>
+      <c r="CO7">
+        <v>0.75917000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.76937999999999995</v>
+      </c>
+      <c r="CQ7">
+        <v>0.71350999999999998</v>
+      </c>
+      <c r="CR7">
+        <v>0.72241</v>
+      </c>
+      <c r="CS7">
+        <v>0.74868999999999997</v>
+      </c>
+      <c r="CT7">
+        <v>0.745</v>
+      </c>
+      <c r="CU7">
+        <v>0.72475999999999996</v>
+      </c>
+      <c r="CV7">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="CW7">
+        <v>0.74660440000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.74839</v>
+      </c>
+      <c r="B8">
+        <v>0.77064999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.73812</v>
+      </c>
+      <c r="D8">
+        <v>0.76978999999999997</v>
+      </c>
+      <c r="E8">
+        <v>0.75768999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.76300999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.73855000000000004</v>
+      </c>
+      <c r="H8">
+        <v>0.75153999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.73168</v>
+      </c>
+      <c r="J8">
+        <v>0.73248000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.76151000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.74077000000000004</v>
+      </c>
+      <c r="M8">
+        <v>0.73145000000000004</v>
+      </c>
+      <c r="N8">
+        <v>0.76095000000000002</v>
+      </c>
+      <c r="O8">
+        <v>0.75007000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.73207</v>
+      </c>
+      <c r="Q8">
+        <v>0.74411000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.73862000000000005</v>
+      </c>
+      <c r="S8">
+        <v>0.70526</v>
+      </c>
+      <c r="T8">
+        <v>0.75339999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.75583</v>
+      </c>
+      <c r="V8">
+        <v>0.75095999999999996</v>
+      </c>
+      <c r="W8">
+        <v>0.73182999999999998</v>
+      </c>
+      <c r="X8">
+        <v>0.75109000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>0.75536000000000003</v>
+      </c>
+      <c r="Z8">
+        <v>0.72970999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>0.76163000000000003</v>
+      </c>
+      <c r="AB8">
+        <v>0.76012000000000002</v>
+      </c>
+      <c r="AC8">
+        <v>0.74324999999999997</v>
+      </c>
+      <c r="AD8">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="AE8">
+        <v>0.74602999999999997</v>
+      </c>
+      <c r="AF8">
+        <v>0.76044</v>
+      </c>
+      <c r="AG8">
+        <v>0.74521000000000004</v>
+      </c>
+      <c r="AH8">
+        <v>0.70972999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.74292999999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="AK8">
+        <v>0.72006000000000003</v>
+      </c>
+      <c r="AL8">
+        <v>0.75582000000000005</v>
+      </c>
+      <c r="AM8">
+        <v>0.72155000000000002</v>
+      </c>
+      <c r="AN8">
+        <v>0.74951000000000001</v>
+      </c>
+      <c r="AO8">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="AP8">
+        <v>0.72516000000000003</v>
+      </c>
+      <c r="AQ8">
+        <v>0.72543000000000002</v>
+      </c>
+      <c r="AR8">
+        <v>0.74922999999999995</v>
+      </c>
+      <c r="AS8">
+        <v>0.73967000000000005</v>
+      </c>
+      <c r="AT8">
+        <v>0.77003999999999995</v>
+      </c>
+      <c r="AU8">
+        <v>0.74399000000000004</v>
+      </c>
+      <c r="AV8">
+        <v>0.74539</v>
+      </c>
+      <c r="AW8">
+        <v>0.76932</v>
+      </c>
+      <c r="AX8">
+        <v>0.72536999999999996</v>
+      </c>
+      <c r="AY8">
+        <v>0.75387000000000004</v>
+      </c>
+      <c r="AZ8">
+        <v>0.71043999999999996</v>
+      </c>
+      <c r="BA8">
+        <v>0.75056999999999996</v>
+      </c>
+      <c r="BB8">
+        <v>0.75909000000000004</v>
+      </c>
+      <c r="BC8">
+        <v>0.75934000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.74692999999999998</v>
+      </c>
+      <c r="BE8">
+        <v>0.71350999999999998</v>
+      </c>
+      <c r="BF8">
+        <v>0.75805999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="BH8">
+        <v>0.73456999999999995</v>
+      </c>
+      <c r="BI8">
+        <v>0.74363000000000001</v>
+      </c>
+      <c r="BJ8">
+        <v>0.76898999999999995</v>
+      </c>
+      <c r="BK8">
+        <v>0.78778000000000004</v>
+      </c>
+      <c r="BL8">
+        <v>0.74182000000000003</v>
+      </c>
+      <c r="BM8">
+        <v>0.74860000000000004</v>
+      </c>
+      <c r="BN8">
+        <v>0.73404000000000003</v>
+      </c>
+      <c r="BO8">
+        <v>0.74670999999999998</v>
+      </c>
+      <c r="BP8">
+        <v>0.73838999999999999</v>
+      </c>
+      <c r="BQ8">
+        <v>0.76048000000000004</v>
+      </c>
+      <c r="BR8">
+        <v>0.74758000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.74472000000000005</v>
+      </c>
+      <c r="BT8">
+        <v>0.75090000000000001</v>
+      </c>
+      <c r="BU8">
+        <v>0.73838000000000004</v>
+      </c>
+      <c r="BV8">
+        <v>0.75463000000000002</v>
+      </c>
+      <c r="BW8">
+        <v>0.75353000000000003</v>
+      </c>
+      <c r="BX8">
+        <v>0.74395999999999995</v>
+      </c>
+      <c r="BY8">
+        <v>0.75202000000000002</v>
+      </c>
+      <c r="BZ8">
+        <v>0.77141000000000004</v>
+      </c>
+      <c r="CA8">
+        <v>0.76507000000000003</v>
+      </c>
+      <c r="CB8">
+        <v>0.72790999999999995</v>
+      </c>
+      <c r="CC8">
+        <v>0.76544999999999996</v>
+      </c>
+      <c r="CD8">
+        <v>0.75878000000000001</v>
+      </c>
+      <c r="CE8">
+        <v>0.73194999999999999</v>
+      </c>
+      <c r="CF8">
+        <v>0.76651999999999998</v>
+      </c>
+      <c r="CG8">
+        <v>0.75843000000000005</v>
+      </c>
+      <c r="CH8">
+        <v>0.74965999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.73002</v>
+      </c>
+      <c r="CJ8">
+        <v>0.77141000000000004</v>
+      </c>
+      <c r="CK8">
+        <v>0.73111999999999999</v>
+      </c>
+      <c r="CL8">
+        <v>0.70303000000000004</v>
+      </c>
+      <c r="CM8">
+        <v>0.75363000000000002</v>
+      </c>
+      <c r="CN8">
+        <v>0.76790999999999998</v>
+      </c>
+      <c r="CO8">
+        <v>0.76831000000000005</v>
+      </c>
+      <c r="CP8">
+        <v>0.77349999999999997</v>
+      </c>
+      <c r="CQ8">
+        <v>0.73897999999999997</v>
+      </c>
+      <c r="CR8">
+        <v>0.75543000000000005</v>
+      </c>
+      <c r="CS8">
+        <v>0.72406999999999999</v>
+      </c>
+      <c r="CT8">
+        <v>0.73938999999999999</v>
+      </c>
+      <c r="CU8">
+        <v>0.75009999999999999</v>
+      </c>
+      <c r="CV8">
+        <v>0.71865000000000001</v>
+      </c>
+      <c r="CW8">
+        <v>0.74669140000000012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.74958999999999998</v>
+      </c>
+      <c r="B9">
+        <v>0.75409000000000004</v>
+      </c>
+      <c r="C9">
+        <v>0.7732</v>
+      </c>
+      <c r="D9">
+        <v>0.77542</v>
+      </c>
+      <c r="E9">
+        <v>0.72692000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.74351</v>
+      </c>
+      <c r="H9">
+        <v>0.73551999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.77615000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="K9">
+        <v>0.78156000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.78174999999999994</v>
+      </c>
+      <c r="M9">
+        <v>0.70032000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.74297000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.76078000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.75468999999999997</v>
+      </c>
+      <c r="Q9">
+        <v>0.76795999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.75536000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.76119000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="U9">
+        <v>0.75688999999999995</v>
+      </c>
+      <c r="V9">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="W9">
+        <v>0.77425999999999995</v>
+      </c>
+      <c r="X9">
+        <v>0.74382999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="Z9">
+        <v>0.74231999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.76592000000000005</v>
+      </c>
+      <c r="AC9">
+        <v>0.75495999999999996</v>
+      </c>
+      <c r="AD9">
+        <v>0.75399000000000005</v>
+      </c>
+      <c r="AE9">
+        <v>0.75858000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.75512999999999997</v>
+      </c>
+      <c r="AH9">
+        <v>0.74819000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.76592000000000005</v>
+      </c>
+      <c r="AJ9">
+        <v>0.78051000000000004</v>
+      </c>
+      <c r="AK9">
+        <v>0.75178999999999996</v>
+      </c>
+      <c r="AL9">
+        <v>0.75729999999999997</v>
+      </c>
+      <c r="AM9">
+        <v>0.74617</v>
+      </c>
+      <c r="AN9">
+        <v>0.75029000000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.73760999999999999</v>
+      </c>
+      <c r="AP9">
+        <v>0.74858000000000002</v>
+      </c>
+      <c r="AQ9">
+        <v>0.74536999999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.74502999999999997</v>
+      </c>
+      <c r="AS9">
+        <v>0.77422999999999997</v>
+      </c>
+      <c r="AT9">
+        <v>0.73360999999999998</v>
+      </c>
+      <c r="AU9">
+        <v>0.74261999999999995</v>
+      </c>
+      <c r="AV9">
+        <v>0.74556999999999995</v>
+      </c>
+      <c r="AW9">
+        <v>0.72968</v>
+      </c>
+      <c r="AX9">
+        <v>0.73341000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.74975999999999998</v>
+      </c>
+      <c r="AZ9">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="BA9">
+        <v>0.76417000000000002</v>
+      </c>
+      <c r="BB9">
+        <v>0.74997000000000003</v>
+      </c>
+      <c r="BC9">
+        <v>0.74063000000000001</v>
+      </c>
+      <c r="BD9">
+        <v>0.74934000000000001</v>
+      </c>
+      <c r="BE9">
+        <v>0.76478000000000002</v>
+      </c>
+      <c r="BF9">
+        <v>0.72413000000000005</v>
+      </c>
+      <c r="BG9">
+        <v>0.75044999999999995</v>
+      </c>
+      <c r="BH9">
+        <v>0.77385999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>0.74692999999999998</v>
+      </c>
+      <c r="BJ9">
+        <v>0.76354999999999995</v>
+      </c>
+      <c r="BK9">
+        <v>0.74111000000000005</v>
+      </c>
+      <c r="BL9">
+        <v>0.74973999999999996</v>
+      </c>
+      <c r="BM9">
+        <v>0.74783999999999995</v>
+      </c>
+      <c r="BN9">
+        <v>0.76</v>
+      </c>
+      <c r="BO9">
+        <v>0.74895999999999996</v>
+      </c>
+      <c r="BP9">
+        <v>0.73697999999999997</v>
+      </c>
+      <c r="BQ9">
+        <v>0.75273000000000001</v>
+      </c>
+      <c r="BR9">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="BS9">
+        <v>0.73470999999999997</v>
+      </c>
+      <c r="BT9">
+        <v>0.73984000000000005</v>
+      </c>
+      <c r="BU9">
+        <v>0.76134999999999997</v>
+      </c>
+      <c r="BV9">
+        <v>0.78451000000000004</v>
+      </c>
+      <c r="BW9">
+        <v>0.74217</v>
+      </c>
+      <c r="BX9">
+        <v>0.76934000000000002</v>
+      </c>
+      <c r="BY9">
+        <v>0.74843000000000004</v>
+      </c>
+      <c r="BZ9">
+        <v>0.71552000000000004</v>
+      </c>
+      <c r="CA9">
+        <v>0.75685999999999998</v>
+      </c>
+      <c r="CB9">
+        <v>0.75741999999999998</v>
+      </c>
+      <c r="CC9">
+        <v>0.72697999999999996</v>
+      </c>
+      <c r="CD9">
+        <v>0.72041999999999995</v>
+      </c>
+      <c r="CE9">
+        <v>0.76914000000000005</v>
+      </c>
+      <c r="CF9">
+        <v>0.74953999999999998</v>
+      </c>
+      <c r="CG9">
+        <v>0.72982999999999998</v>
+      </c>
+      <c r="CH9">
+        <v>0.73250999999999999</v>
+      </c>
+      <c r="CI9">
+        <v>0.73026000000000002</v>
+      </c>
+      <c r="CJ9">
+        <v>0.73829</v>
+      </c>
+      <c r="CK9">
+        <v>0.75321000000000005</v>
+      </c>
+      <c r="CL9">
+        <v>0.74056999999999995</v>
+      </c>
+      <c r="CM9">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="CN9">
+        <v>0.78627000000000002</v>
+      </c>
+      <c r="CO9">
+        <v>0.73528000000000004</v>
+      </c>
+      <c r="CP9">
+        <v>0.75714000000000004</v>
+      </c>
+      <c r="CQ9">
+        <v>0.74339</v>
+      </c>
+      <c r="CR9">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="CS9">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="CT9">
+        <v>0.76207999999999998</v>
+      </c>
+      <c r="CU9">
+        <v>0.75975999999999999</v>
+      </c>
+      <c r="CV9">
+        <v>0.76749000000000001</v>
+      </c>
+      <c r="CW9">
+        <v>0.75139080000000036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75558999999999998</v>
+      </c>
+      <c r="B10">
+        <v>0.74961</v>
+      </c>
+      <c r="C10">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.74873000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.74058999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.75483</v>
+      </c>
+      <c r="G10">
+        <v>0.74692000000000003</v>
+      </c>
+      <c r="H10">
+        <v>0.73338000000000003</v>
+      </c>
+      <c r="I10">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.73894000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.78002000000000005</v>
+      </c>
+      <c r="M10">
+        <v>0.74668000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.73734</v>
+      </c>
+      <c r="O10">
+        <v>0.74367000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.73107999999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.74558999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.75519000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.72994999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.70318999999999998</v>
+      </c>
+      <c r="V10">
+        <v>0.74273</v>
+      </c>
+      <c r="W10">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.76209000000000005</v>
+      </c>
+      <c r="Y10">
+        <v>0.75302000000000002</v>
+      </c>
+      <c r="Z10">
+        <v>0.75961000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.73685</v>
+      </c>
+      <c r="AC10">
+        <v>0.75231000000000003</v>
+      </c>
+      <c r="AD10">
+        <v>0.76834000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.78471999999999997</v>
+      </c>
+      <c r="AF10">
+        <v>0.75383</v>
+      </c>
+      <c r="AG10">
+        <v>0.75987000000000005</v>
+      </c>
+      <c r="AH10">
         <v>0.74031000000000002</v>
       </c>
-      <c r="B1">
-        <v>0.71713000000000005</v>
-      </c>
-      <c r="C1">
-        <v>0.72872000000000003</v>
+      <c r="AI10">
+        <v>0.76612999999999998</v>
+      </c>
+      <c r="AJ10">
+        <v>0.75309000000000004</v>
+      </c>
+      <c r="AK10">
+        <v>0.74900999999999995</v>
+      </c>
+      <c r="AL10">
+        <v>0.75192000000000003</v>
+      </c>
+      <c r="AM10">
+        <v>0.74431999999999998</v>
+      </c>
+      <c r="AN10">
+        <v>0.74443000000000004</v>
+      </c>
+      <c r="AO10">
+        <v>0.76007000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.72990999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>0.74563000000000001</v>
+      </c>
+      <c r="AR10">
+        <v>0.74148000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.71116000000000001</v>
+      </c>
+      <c r="AT10">
+        <v>0.746</v>
+      </c>
+      <c r="AU10">
+        <v>0.76295999999999997</v>
+      </c>
+      <c r="AV10">
+        <v>0.75151999999999997</v>
+      </c>
+      <c r="AW10">
+        <v>0.73851999999999995</v>
+      </c>
+      <c r="AX10">
+        <v>0.73514000000000002</v>
+      </c>
+      <c r="AY10">
+        <v>0.75029000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.73934999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.72657000000000005</v>
+      </c>
+      <c r="BB10">
+        <v>0.75375000000000003</v>
+      </c>
+      <c r="BC10">
+        <v>0.75910999999999995</v>
+      </c>
+      <c r="BD10">
+        <v>0.74963999999999997</v>
+      </c>
+      <c r="BE10">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="BF10">
+        <v>0.71823999999999999</v>
+      </c>
+      <c r="BG10">
+        <v>0.77995000000000003</v>
+      </c>
+      <c r="BH10">
+        <v>0.73738000000000004</v>
+      </c>
+      <c r="BI10">
+        <v>0.75351999999999997</v>
+      </c>
+      <c r="BJ10">
+        <v>0.77005000000000001</v>
+      </c>
+      <c r="BK10">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="BL10">
+        <v>0.73611000000000004</v>
+      </c>
+      <c r="BM10">
+        <v>0.73494999999999999</v>
+      </c>
+      <c r="BN10">
+        <v>0.73019000000000001</v>
+      </c>
+      <c r="BO10">
+        <v>0.70777999999999996</v>
+      </c>
+      <c r="BP10">
+        <v>0.72426000000000001</v>
+      </c>
+      <c r="BQ10">
+        <v>0.76726000000000005</v>
+      </c>
+      <c r="BR10">
+        <v>0.71570999999999996</v>
+      </c>
+      <c r="BS10">
+        <v>0.78852</v>
+      </c>
+      <c r="BT10">
+        <v>0.74229000000000001</v>
+      </c>
+      <c r="BU10">
+        <v>0.73392000000000002</v>
+      </c>
+      <c r="BV10">
+        <v>0.75026000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.76212000000000002</v>
+      </c>
+      <c r="BX10">
+        <v>0.73838999999999999</v>
+      </c>
+      <c r="BY10">
+        <v>0.75361</v>
+      </c>
+      <c r="BZ10">
+        <v>0.77124000000000004</v>
+      </c>
+      <c r="CA10">
+        <v>0.74638000000000004</v>
+      </c>
+      <c r="CB10">
+        <v>0.74061999999999995</v>
+      </c>
+      <c r="CC10">
+        <v>0.73960999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.72980999999999996</v>
+      </c>
+      <c r="CE10">
+        <v>0.76834000000000002</v>
+      </c>
+      <c r="CF10">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="CG10">
+        <v>0.75865000000000005</v>
+      </c>
+      <c r="CH10">
+        <v>0.73072999999999999</v>
+      </c>
+      <c r="CI10">
+        <v>0.73616000000000004</v>
+      </c>
+      <c r="CJ10">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="CK10">
+        <v>0.74863999999999997</v>
+      </c>
+      <c r="CL10">
+        <v>0.77366999999999997</v>
+      </c>
+      <c r="CM10">
+        <v>0.77695999999999998</v>
+      </c>
+      <c r="CN10">
+        <v>0.73426000000000002</v>
+      </c>
+      <c r="CO10">
+        <v>0.74239999999999995</v>
+      </c>
+      <c r="CP10">
+        <v>0.74180000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.75416000000000005</v>
+      </c>
+      <c r="CR10">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>0.74917999999999996</v>
+      </c>
+      <c r="CT10">
+        <v>0.74289000000000005</v>
+      </c>
+      <c r="CU10">
+        <v>0.78008999999999995</v>
+      </c>
+      <c r="CV10">
+        <v>0.76637</v>
+      </c>
+      <c r="CW10">
+        <v>0.74856949999999989</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.76873999999999998</v>
-      </c>
-      <c r="B2">
-        <v>0.76995999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.76934999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.72833000000000003</v>
-      </c>
-      <c r="B3">
-        <v>0.75939999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.743865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.72660000000000002</v>
-      </c>
-      <c r="B4">
-        <v>0.75890000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.74275000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.76737</v>
-      </c>
-      <c r="B5">
-        <v>0.75832999999999995</v>
-      </c>
-      <c r="C5">
-        <v>0.76285000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.74216000000000004</v>
-      </c>
-      <c r="B6">
-        <v>0.75172000000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.74694000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.76002000000000003</v>
-      </c>
-      <c r="B7">
-        <v>0.75841999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.75922000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.77266000000000001</v>
-      </c>
-      <c r="B8">
-        <v>0.74138000000000004</v>
-      </c>
-      <c r="C8">
-        <v>0.75702000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.74141000000000001</v>
-      </c>
-      <c r="B9">
-        <v>0.76354</v>
-      </c>
-      <c r="C9">
-        <v>0.752475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.69535999999999998</v>
-      </c>
-      <c r="B10">
-        <v>0.76126000000000005</v>
-      </c>
-      <c r="C10">
-        <v>0.72831000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.75261999999999996</v>
+        <v>0.74090999999999996</v>
       </c>
       <c r="B11">
-        <v>0.76310999999999996</v>
+        <v>0.78891</v>
       </c>
       <c r="C11">
-        <v>0.75786500000000001</v>
+        <v>0.76720999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.76436999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.75675999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.74173999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.76748000000000005</v>
+      </c>
+      <c r="H11">
+        <v>0.74511000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.74770999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="K11">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.75792999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.73495999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.75883</v>
+      </c>
+      <c r="P11">
+        <v>0.76527999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.75468999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.77122000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.75392999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.73334999999999995</v>
+      </c>
+      <c r="U11">
+        <v>0.74177999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.69649000000000005</v>
+      </c>
+      <c r="W11">
+        <v>0.73236999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.73365000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.79407000000000005</v>
+      </c>
+      <c r="Z11">
+        <v>0.77227000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>0.75366</v>
+      </c>
+      <c r="AB11">
+        <v>0.75322999999999996</v>
+      </c>
+      <c r="AC11">
+        <v>0.72706999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.74316000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>0.77281</v>
+      </c>
+      <c r="AF11">
+        <v>0.73094999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.74460000000000004</v>
+      </c>
+      <c r="AH11">
+        <v>0.74246000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.72909000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.74428000000000005</v>
+      </c>
+      <c r="AK11">
+        <v>0.75402999999999998</v>
+      </c>
+      <c r="AL11">
+        <v>0.74060999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.72472000000000003</v>
+      </c>
+      <c r="AN11">
+        <v>0.71136999999999995</v>
+      </c>
+      <c r="AO11">
+        <v>0.74131999999999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="AQ11">
+        <v>0.74180999999999997</v>
+      </c>
+      <c r="AR11">
+        <v>0.76131000000000004</v>
+      </c>
+      <c r="AS11">
+        <v>0.73111000000000004</v>
+      </c>
+      <c r="AT11">
+        <v>0.73651</v>
+      </c>
+      <c r="AU11">
+        <v>0.79861000000000004</v>
+      </c>
+      <c r="AV11">
+        <v>0.74056</v>
+      </c>
+      <c r="AW11">
+        <v>0.76744999999999997</v>
+      </c>
+      <c r="AX11">
+        <v>0.72187000000000001</v>
+      </c>
+      <c r="AY11">
+        <v>0.73626999999999998</v>
+      </c>
+      <c r="AZ11">
+        <v>0.76305999999999996</v>
+      </c>
+      <c r="BA11">
+        <v>0.72624</v>
+      </c>
+      <c r="BB11">
+        <v>0.73377000000000003</v>
+      </c>
+      <c r="BC11">
+        <v>0.72635000000000005</v>
+      </c>
+      <c r="BD11">
+        <v>0.74190999999999996</v>
+      </c>
+      <c r="BE11">
+        <v>0.74872000000000005</v>
+      </c>
+      <c r="BF11">
+        <v>0.76551999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.76546000000000003</v>
+      </c>
+      <c r="BH11">
+        <v>0.73934999999999995</v>
+      </c>
+      <c r="BI11">
+        <v>0.77475000000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>0.74495999999999996</v>
+      </c>
+      <c r="BK11">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="BL11">
+        <v>0.73953000000000002</v>
+      </c>
+      <c r="BM11">
+        <v>0.74895</v>
+      </c>
+      <c r="BN11">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="BO11">
+        <v>0.77673000000000003</v>
+      </c>
+      <c r="BP11">
+        <v>0.75266999999999995</v>
+      </c>
+      <c r="BQ11">
+        <v>0.74358000000000002</v>
+      </c>
+      <c r="BR11">
+        <v>0.73995999999999995</v>
+      </c>
+      <c r="BS11">
+        <v>0.72724999999999995</v>
+      </c>
+      <c r="BT11">
+        <v>0.74521000000000004</v>
+      </c>
+      <c r="BU11">
+        <v>0.75627</v>
+      </c>
+      <c r="BV11">
+        <v>0.73451</v>
+      </c>
+      <c r="BW11">
+        <v>0.77617999999999998</v>
+      </c>
+      <c r="BX11">
+        <v>0.76493999999999995</v>
+      </c>
+      <c r="BY11">
+        <v>0.76441999999999999</v>
+      </c>
+      <c r="BZ11">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="CA11">
+        <v>0.73789000000000005</v>
+      </c>
+      <c r="CB11">
+        <v>0.75268000000000002</v>
+      </c>
+      <c r="CC11">
+        <v>0.73155999999999999</v>
+      </c>
+      <c r="CD11">
+        <v>0.76714000000000004</v>
+      </c>
+      <c r="CE11">
+        <v>0.76012999999999997</v>
+      </c>
+      <c r="CF11">
+        <v>0.75821000000000005</v>
+      </c>
+      <c r="CG11">
+        <v>0.73424999999999996</v>
+      </c>
+      <c r="CH11">
+        <v>0.74714999999999998</v>
+      </c>
+      <c r="CI11">
+        <v>0.74131999999999998</v>
+      </c>
+      <c r="CJ11">
+        <v>0.72802999999999995</v>
+      </c>
+      <c r="CK11">
+        <v>0.75590999999999997</v>
+      </c>
+      <c r="CL11">
+        <v>0.75485999999999998</v>
+      </c>
+      <c r="CM11">
+        <v>0.74611000000000005</v>
+      </c>
+      <c r="CN11">
+        <v>0.75610999999999995</v>
+      </c>
+      <c r="CO11">
+        <v>0.75768000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>0.74031000000000002</v>
+      </c>
+      <c r="CQ11">
+        <v>0.74834000000000001</v>
+      </c>
+      <c r="CR11">
+        <v>0.80257999999999996</v>
+      </c>
+      <c r="CS11">
+        <v>0.75114000000000003</v>
+      </c>
+      <c r="CT11">
+        <v>0.79061000000000003</v>
+      </c>
+      <c r="CU11">
+        <v>0.74722999999999995</v>
+      </c>
+      <c r="CV11">
+        <v>0.79217000000000004</v>
+      </c>
+      <c r="CW11">
+        <v>0.7497098000000002</v>
       </c>
     </row>
   </sheetData>
